--- a/medicine/Enfance/Mon_quotidien/Mon_quotidien.xlsx
+++ b/medicine/Enfance/Mon_quotidien/Mon_quotidien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mon quotidien est un journal d'actualité pour les 10-14 ans publié par Play Bac. Il paraît du lundi au samedi.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concernant le nom du journal le rédacteur en chef François Dufour note : « Le premier nom du journal était Poil au nez !, pour faire rigolo. Puis on a essayé Mon journal. Mais les parents n'arrivaient pas à retenir que ce journal allait sortir tous les jours ! Alors il fallait le nommer Mon Quotidien. »[1][source insuffisante]
-François Dufour « […] Mais les enfants-testeurs trouvaient les dessins du premier dessinateur, notre pote Cabu, trop adultes. Alors, on a changé : Charb, puis Berth. »[1]
-Les personnages de Quotillon et Rognon sont des créations de Charb qui a laissé sa place à Berth[2][source insuffisante].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant le nom du journal le rédacteur en chef François Dufour note : « Le premier nom du journal était Poil au nez !, pour faire rigolo. Puis on a essayé Mon journal. Mais les parents n'arrivaient pas à retenir que ce journal allait sortir tous les jours ! Alors il fallait le nommer Mon Quotidien. »[source insuffisante]
+François Dufour « […] Mais les enfants-testeurs trouvaient les dessins du premier dessinateur, notre pote Cabu, trop adultes. Alors, on a changé : Charb, puis Berth. »
+Les personnages de Quotillon et Rognon sont des créations de Charb qui a laissé sa place à Berth[source insuffisante].
 En 2011[réf. souhaitée], Play Bac met en ligne un site web qui complète les informations du journal papier et qui propose des fiches d'exposés et d'aide-devoirs.
 </t>
         </is>
@@ -546,12 +560,14 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est édité depuis le 4 janvier 1995 par l'éditeur et groupe de presse Play Bac Presse, créateur des Incollables, qui publie aussi les quotidiens Le Petit Quotidien pour les 6-10 ans et L'Actu pour les adolescents dès 13 ans et L'Éco, un hebdomadaire économique pour les adolescents dès 14 ans.
 Le journal n'est pas vendu en kiosque. Play Bac Presse commercialise ce journal quotidien uniquement par abonnement.
 Les abonnements sont commercialisés par publipostage au sein des écoles et des foyers, également via le site internet.
-Mon quotidien peut contenir de la communication sponsorisée, selon la politique éditoriale de sa maison d'édition[3]. Le lobby vin et société s'est notamment associé à Mon quotidien pour « contourner les règles » et « faire entrer des publications sur le vin dans les bibliothèques scolaires »[4].
+Mon quotidien peut contenir de la communication sponsorisée, selon la politique éditoriale de sa maison d'édition. Le lobby vin et société s'est notamment associé à Mon quotidien pour « contourner les règles » et « faire entrer des publications sur le vin dans les bibliothèques scolaires ».
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Suppléments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mon quotidien propose plusieurs suppléments gratuits ou payants :
 L'animal de la semaine, tous les samedis, un carnet de 4 pages parlant chaque fois d'un animal différent
@@ -618,7 +636,9 @@
           <t>Journal télévisé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à fin 2010[réf. souhaitée], Mon quotidien a proposé aussi un journal télévisé sur Internet du lundi au vendredi à 17 heures.
 </t>
